--- a/templates/test.xlsx
+++ b/templates/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ТЕХНОПАРК</t>
   </si>
@@ -56,6 +56,45 @@
   </si>
   <si>
     <t>В.В. Войков</t>
+  </si>
+  <si>
+    <t>Проект вносит:</t>
+  </si>
+  <si>
+    <t>Исполнитель:</t>
+  </si>
+  <si>
+    <t>Ознакомлены:</t>
+  </si>
+  <si>
+    <t>Приложение к приказу ГАОУ АО ДО «РШТ»</t>
+  </si>
+  <si>
+    <t>от ____________. № ____________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучающиеся: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учебная группа: </t>
+  </si>
+  <si>
+    <t>Руководитель:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнительная общеразвивающая программа: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направленность: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма обучения: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок освоения: </t>
+  </si>
+  <si>
+    <t>Дата зачисления:</t>
   </si>
 </sst>
 </file>
@@ -144,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -161,37 +200,43 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,74 +906,177 @@
       <c r="A3" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="18"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="18"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B76:C76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
